--- a/ILCA 47.xlsx
+++ b/ILCA 47.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Desktop\SIY ILCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloos\Desktop\SIY_ILCA\SIY_ILCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB106D-07CE-453E-AF1B-5BE46A35A456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BA5BA2-19ED-40B5-B32A-D8479ED70270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ILCA 4.7" sheetId="11" r:id="rId1"/>
@@ -1120,22 +1120,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="6"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>92</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>84</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>68</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>77</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>80</v>
       </c>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>91</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>97</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>81</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>93</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>76</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>87</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>94</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>59</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
